--- a/data/trans_dic/P70C1_R_2023-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P70C1_R_2023-Edad-trans_dic.xlsx
@@ -564,13 +564,13 @@
         </is>
       </c>
       <c r="C4" s="5" t="n">
-        <v>0.2203775691464628</v>
+        <v>0.2203775691464627</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.2039073086060127</v>
+        <v>0.2039073086060128</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.2126903450610384</v>
+        <v>0.2126903450610383</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1171359997588498</v>
+        <v>0.1137302261377686</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1065849429684859</v>
+        <v>0.1101893414194347</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.1424357956937985</v>
+        <v>0.1388627449331967</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.37351497001701</v>
+        <v>0.36513680003388</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.3146351050246411</v>
+        <v>0.3326824148127254</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2996123723954665</v>
+        <v>0.3096295330677855</v>
       </c>
     </row>
     <row r="7">
@@ -625,7 +625,7 @@
         <v>0.2351127777602784</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.2355698054015948</v>
+        <v>0.2355698054015947</v>
       </c>
     </row>
     <row r="8">
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1814735416543456</v>
+        <v>0.1778102366705529</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1921669257356459</v>
+        <v>0.1910631877060596</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2009645689399185</v>
+        <v>0.2004385989919466</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2965970155445165</v>
+        <v>0.2956748460452027</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.2941681790945134</v>
+        <v>0.2898263083647319</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2774219375809565</v>
+        <v>0.2792915535442134</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.1915739946457213</v>
+        <v>0.1915739946457212</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.305029610286891</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.158428360331162</v>
+        <v>0.1546141787599561</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2655939203905147</v>
+        <v>0.2660440364767792</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.213932385176202</v>
+        <v>0.2103984112996135</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2323041585243866</v>
+        <v>0.2284784387858705</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.344500490473694</v>
+        <v>0.3418596531628113</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2674329437620949</v>
+        <v>0.2676092082685649</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1438319732126279</v>
+        <v>0.1438418679350937</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.2227380510454142</v>
+        <v>0.2199148941322594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1883980851834283</v>
+        <v>0.1862373346886029</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.2114302974624089</v>
+        <v>0.2113702276140451</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2901586309795354</v>
+        <v>0.2865886935415579</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2356664565069728</v>
+        <v>0.234196886480506</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1695233292294076</v>
+        <v>0.169083998241483</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.2190973016636184</v>
+        <v>0.2212493603733129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2034860284939686</v>
+        <v>0.2052932334594173</v>
       </c>
     </row>
     <row r="18">
@@ -818,13 +818,13 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.2541589296279823</v>
+        <v>0.2523833535683817</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3154457042315778</v>
+        <v>0.309034903558084</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2665154453566873</v>
+        <v>0.2694594658279175</v>
       </c>
     </row>
     <row r="19">
@@ -856,13 +856,13 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.1808064726471526</v>
+        <v>0.1796153316902268</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.2434921103023666</v>
+        <v>0.2428686147434579</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2142197952292163</v>
+        <v>0.2129969065655447</v>
       </c>
     </row>
     <row r="21">
@@ -873,13 +873,13 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.2222681493276789</v>
+        <v>0.221931203979573</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.2838423813881585</v>
+        <v>0.2842514003292481</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.2445528085365492</v>
+        <v>0.2449753159911002</v>
       </c>
     </row>
     <row r="22">
@@ -1022,13 +1022,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>12278</v>
+        <v>11921</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>9778</v>
+        <v>10109</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>27998</v>
+        <v>27295</v>
       </c>
     </row>
     <row r="7">
@@ -1039,13 +1039,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>39152</v>
+        <v>38274</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>28866</v>
+        <v>30521</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>58893</v>
+        <v>60862</v>
       </c>
     </row>
     <row r="8">
@@ -1094,13 +1094,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>71849</v>
+        <v>70399</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>61135</v>
+        <v>60784</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>143500</v>
+        <v>143124</v>
       </c>
     </row>
     <row r="11">
@@ -1111,13 +1111,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>117429</v>
+        <v>117064</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>93585</v>
+        <v>92204</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>198095</v>
+        <v>199430</v>
       </c>
     </row>
     <row r="12">
@@ -1166,13 +1166,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>84447</v>
+        <v>82414</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>105409</v>
+        <v>105588</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>198938</v>
+        <v>195652</v>
       </c>
     </row>
     <row r="15">
@@ -1183,13 +1183,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>123825</v>
+        <v>121786</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>136726</v>
+        <v>135678</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>248689</v>
+        <v>248853</v>
       </c>
     </row>
     <row r="16">
@@ -1238,13 +1238,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>78651</v>
+        <v>78656</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>101475</v>
+        <v>100189</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>188852</v>
+        <v>186686</v>
       </c>
     </row>
     <row r="19">
@@ -1255,13 +1255,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>115616</v>
+        <v>115583</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>132191</v>
+        <v>130565</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>236234</v>
+        <v>234761</v>
       </c>
     </row>
     <row r="20">
@@ -1310,13 +1310,13 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>55842</v>
+        <v>55697</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>50873</v>
+        <v>51373</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>114277</v>
+        <v>115292</v>
       </c>
     </row>
     <row r="23">
@@ -1327,13 +1327,13 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>83721</v>
+        <v>83136</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>73245</v>
+        <v>71756</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>149675</v>
+        <v>151328</v>
       </c>
     </row>
     <row r="24">
@@ -1382,13 +1382,13 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>345341</v>
+        <v>343065</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>363908</v>
+        <v>362976</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>729319</v>
+        <v>725156</v>
       </c>
     </row>
     <row r="27">
@@ -1399,13 +1399,13 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>424532</v>
+        <v>423889</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>424213</v>
+        <v>424824</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>832589</v>
+        <v>834028</v>
       </c>
     </row>
     <row r="28">
